--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662625.6354681556</v>
+        <v>-665304.1826379839</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305.69463654878</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885173</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.5535772592405</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833737</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>105.9789732507159</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>217.1813949336399</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>222.3359330327884</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>139.9309283843589</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>34.43739670195566</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>79.16005564777993</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>73.440896168931</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>242.5228031711487</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>60.07576669612914</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>32.94212331242851</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>60.86846495359764</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>75.96788793061666</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>212.8565380592848</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G22" t="n">
-        <v>126.926382450742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>53.08838020946216</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>82.5214078207332</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>44.95889092250222</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437066</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994719</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545299</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>916.2435269604421</v>
+        <v>360.5823164832036</v>
       </c>
       <c r="C2" t="n">
-        <v>916.2435269604421</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D2" t="n">
-        <v>557.9778283536916</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E2" t="n">
-        <v>557.9778283536916</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073759</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178238</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136015</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693617</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929202</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.289016245836</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068626</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2194.618789397902</v>
       </c>
       <c r="V2" t="n">
-        <v>2258.929878797415</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>1906.161223527301</v>
+        <v>1510.787246784217</v>
       </c>
       <c r="X2" t="n">
-        <v>1532.695465266221</v>
+        <v>1137.321488523137</v>
       </c>
       <c r="Y2" t="n">
-        <v>1302.843367024564</v>
+        <v>747.1821565473253</v>
       </c>
     </row>
     <row r="3">
@@ -4389,55 +4389,55 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072339</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>651.1289493493074</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447945</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278127</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.8493232528358</v>
+        <v>634.6704279179162</v>
       </c>
       <c r="C4" t="n">
-        <v>158.8493232528358</v>
+        <v>634.6704279179162</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8493232528358</v>
+        <v>634.6704279179162</v>
       </c>
       <c r="E4" t="n">
-        <v>158.8493232528358</v>
+        <v>634.6704279179162</v>
       </c>
       <c r="F4" t="n">
-        <v>158.8493232528358</v>
+        <v>487.7804804200059</v>
       </c>
       <c r="G4" t="n">
-        <v>158.8493232528358</v>
+        <v>319.4587080131298</v>
       </c>
       <c r="H4" t="n">
-        <v>158.8493232528358</v>
+        <v>167.7386194637151</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.034527330184</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159871</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341311</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666712</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092719</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357427</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993471</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361121</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521422</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968603</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="U4" t="n">
-        <v>595.1822762889624</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="V4" t="n">
-        <v>340.4977880830755</v>
+        <v>854.0455743155322</v>
       </c>
       <c r="W4" t="n">
-        <v>340.4977880830755</v>
+        <v>854.0455743155322</v>
       </c>
       <c r="X4" t="n">
-        <v>340.4977880830755</v>
+        <v>854.0455743155322</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.4977880830755</v>
+        <v>634.6704279179162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1870.570385955436</v>
+        <v>1231.1424762988</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.607869015024</v>
+        <v>862.1799593583885</v>
       </c>
       <c r="D5" t="n">
-        <v>1143.342170408274</v>
+        <v>503.914260751638</v>
       </c>
       <c r="E5" t="n">
-        <v>757.5539178100294</v>
+        <v>503.914260751638</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>496.9687600024345</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W5" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.170226019558</v>
+        <v>2007.881648338734</v>
       </c>
       <c r="Y5" t="n">
-        <v>2257.170226019558</v>
+        <v>1617.742316362922</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700.4409679372604</v>
+        <v>771.2018394635691</v>
       </c>
       <c r="C7" t="n">
-        <v>531.5047850093536</v>
+        <v>602.2656565356622</v>
       </c>
       <c r="D7" t="n">
-        <v>381.3881455970178</v>
+        <v>452.1490171233264</v>
       </c>
       <c r="E7" t="n">
-        <v>233.4750520146247</v>
+        <v>304.2359235409333</v>
       </c>
       <c r="F7" t="n">
-        <v>86.58510451671432</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>86.58510451671432</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>86.58510451671432</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V7" t="n">
-        <v>1392.299181947991</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="W7" t="n">
-        <v>1102.88201191103</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="X7" t="n">
-        <v>1102.88201191103</v>
+        <v>952.8503042938088</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.0894327675002</v>
+        <v>952.8503042938088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.916023922006</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.733300519046</v>
+        <v>1163.732948325809</v>
       </c>
       <c r="D8" t="n">
-        <v>878.4676019122953</v>
+        <v>1163.732948325809</v>
       </c>
       <c r="E8" t="n">
-        <v>878.4676019122953</v>
+        <v>777.944695727565</v>
       </c>
       <c r="F8" t="n">
-        <v>467.4816971226878</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,19 +4805,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256242</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.515863986128</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.515863986128</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.515863986128</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="9">
@@ -4899,10 +4899,10 @@
         <v>1952.723412518195</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.994407848215</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C10" t="n">
-        <v>529.994407848215</v>
+        <v>666.4533126227774</v>
       </c>
       <c r="D10" t="n">
-        <v>379.8777684358793</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E10" t="n">
-        <v>231.9646748534861</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>85.07472735557579</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1255.744530921302</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1001.060042715415</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>711.6428726784548</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>711.6428726784548</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.6428726784548</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,13 +5355,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
         <v>716.6687843969308</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630031</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C19" t="n">
-        <v>776.4664207350962</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227605</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>626.3497813227605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>479.4598338248501</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>312.26373453973</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>170.5519033819281</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630031</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5729,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.5738700011939</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>550.637687073287</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.004464872981</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.014913974964</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.2223348314336</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2151.649524353727</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1862.574297697925</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V31" t="n">
-        <v>1607.889809492038</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W31" t="n">
-        <v>1318.472639455077</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X31" t="n">
-        <v>1090.48308855706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>869.6905094135296</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7075,7 +7075,7 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,22 +7178,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7822,13 +7822,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.79828551875</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>188.8486065996839</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159752</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>119.3631077669122</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>196.3826133675479</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>274.5176649421944</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>220.1297156654651</v>
+        <v>245.46701043772</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>363.9101686477898</v>
+        <v>59.5782552222276</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58295254623134</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.684361396813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012299</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>191.2691783702303</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.297948387948878</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>5.728115292809946</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G22" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>172.4465594047861</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>92.15795203868065</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254691</v>
+        <v>207271.1201254692</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
@@ -26326,19 +26326,19 @@
         <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
+        <v>242143.9799070018</v>
+      </c>
+      <c r="H2" t="n">
         <v>242143.9799070019</v>
       </c>
-      <c r="H2" t="n">
-        <v>242143.9799070017</v>
-      </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
+        <v>246312.5309592847</v>
+      </c>
+      <c r="O2" t="n">
         <v>246312.530959285</v>
-      </c>
-      <c r="O2" t="n">
-        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753976</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898933</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85507.33252291696</v>
+        <v>85507.33252291728</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,28 +26424,28 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695058</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695068</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="M4" t="n">
         <v>14278.33979478852</v>
@@ -26454,10 +26454,10 @@
         <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478856</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699087</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907264.2231698364</v>
+        <v>-907589.5682601164</v>
       </c>
       <c r="C6" t="n">
-        <v>-148999.672917366</v>
+        <v>-148999.6729173676</v>
       </c>
       <c r="D6" t="n">
         <v>23764.68687252738</v>
       </c>
       <c r="E6" t="n">
-        <v>-366154.8981943511</v>
+        <v>-366189.6361197869</v>
       </c>
       <c r="F6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="G6" t="n">
-        <v>134733.9695513997</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="H6" t="n">
-        <v>134733.9695513995</v>
+        <v>134699.231625964</v>
       </c>
       <c r="I6" t="n">
-        <v>134733.9695513996</v>
+        <v>134699.231625964</v>
       </c>
       <c r="J6" t="n">
-        <v>-34680.04727464853</v>
+        <v>-34714.78520008414</v>
       </c>
       <c r="K6" t="n">
-        <v>134733.9695513997</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="L6" t="n">
-        <v>134733.9695513998</v>
+        <v>134699.2316259639</v>
       </c>
       <c r="M6" t="n">
         <v>-21442.0995872862</v>
       </c>
       <c r="N6" t="n">
-        <v>128870.0753105811</v>
+        <v>128870.0753105808</v>
       </c>
       <c r="O6" t="n">
         <v>128870.0753105811</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976097</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522348</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.362723123217791</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>383.2930931954801</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800403248770323</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>1.403258418454925</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>184.540112708923</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>271.5940949975105</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>70.05326281104547</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>146.5495997412572</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>291.8319956020765</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>164.3532425705628</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.1710544024987</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>133.354303538301</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,19 +28065,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090891</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066895</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611369</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014937</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682851</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658683</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485895</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775956</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330904</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325346</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282124</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072712</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674104</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307771</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261556</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.262332560511</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911972</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240732</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257154</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028909</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969222</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993425</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777202</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855589</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600313</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932505</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.15908051844</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311391</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519961</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567077</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965187</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189612</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2555750770852</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M21" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.944966752077</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873211</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315064</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410124</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692774</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269027</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>391.1762099220099</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185456</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517966</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>331.071060547549</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691789</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407399</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580004</v>
+        <v>437.5997363488178</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689365</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527185</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883111</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550911</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944467</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342481</v>
+        <v>185.6449372342486</v>
       </c>
       <c r="R5" t="n">
         <v>21.71629760961983</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>574.832765059684</v>
+        <v>419.6910752148007</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35033,10 +35033,10 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35267,13 +35267,13 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>472.1264104786154</v>
+        <v>497.4637052508702</v>
       </c>
       <c r="Q9" t="n">
         <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>509.9138629937518</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M21" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>91.80490927281453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
